--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW28.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW28.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C20E92C-7E16-437C-AFAD-E62416E9601B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B095205-81D4-4569-B5DE-4E3927DCD4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="555" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="900" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wochenplan" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="24">
   <si>
     <t>Wochenplan</t>
   </si>
@@ -107,7 +107,7 @@
     <t>Projektphasen: Gantt-Diagramm anpassen</t>
   </si>
   <si>
-    <t>Projektabschnitt 4: Planung</t>
+    <t>Projektabschnitt 4: Planung, Recherche</t>
   </si>
 </sst>
 </file>
@@ -2711,9 +2711,13 @@
       <c r="M17" s="34"/>
       <c r="N17" s="34"/>
       <c r="O17" s="34"/>
-      <c r="P17" s="36"/>
+      <c r="P17" s="36">
+        <v>2</v>
+      </c>
       <c r="Q17" s="43"/>
-      <c r="R17" s="7"/>
+      <c r="R17" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="18" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
@@ -3323,7 +3327,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="60">
         <f>SUM(P7:R46)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q47" s="60"/>
       <c r="R47" s="61"/>

--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW28.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW28.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E32E391-F1B7-4196-AF7A-092B77333BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8393CC04-DEA1-4B07-95F5-6FB8A375C256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wochenplan" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="26">
   <si>
     <t>Wochenplan</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>Projekt Umplanung Projektphasen und Gantt-Diagramm</t>
+  </si>
+  <si>
+    <t>Projektabschnitt 4: Erstellen von Schwierigkeitsstufen</t>
   </si>
 </sst>
 </file>
@@ -2298,8 +2301,8 @@
   </sheetPr>
   <dimension ref="A1:R195"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:O20"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2759,7 +2762,9 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
+      <c r="A20" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="B20" s="39"/>
       <c r="C20" s="39"/>
       <c r="D20" s="39"/>
@@ -2774,12 +2779,16 @@
       <c r="M20" s="39"/>
       <c r="N20" s="39"/>
       <c r="O20" s="39"/>
-      <c r="P20" s="41"/>
+      <c r="P20" s="41">
+        <v>2.25</v>
+      </c>
       <c r="Q20" s="42"/>
       <c r="R20" s="8"/>
     </row>
     <row r="21" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
+      <c r="A21" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="B21" s="34"/>
       <c r="C21" s="34"/>
       <c r="D21" s="34"/>
@@ -2793,8 +2802,10 @@
       <c r="L21" s="34"/>
       <c r="M21" s="34"/>
       <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="36"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="36">
+        <v>0.25</v>
+      </c>
       <c r="Q21" s="43"/>
       <c r="R21" s="7"/>
     </row>
@@ -3324,7 +3335,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="60">
         <f>SUM(P7:R46)</f>
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="Q47" s="60"/>
       <c r="R47" s="61"/>

--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW28.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW28.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C37FAA8-5848-4733-AA4C-4BC9816A3F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5810BF5-2EFF-475E-9E82-CE3774926683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="30">
   <si>
     <t>Wochenplan</t>
   </si>
@@ -120,6 +120,12 @@
   </si>
   <si>
     <t>Projektabschnitt 4: Datenbank anpassen, Planung, Umsetzung</t>
+  </si>
+  <si>
+    <t>Projektabschnitt 4: Testen und Fehlerbehung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projektabschnitt 4: Erkennnen Niveau, </t>
   </si>
 </sst>
 </file>
@@ -2296,7 +2302,7 @@
   <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A10" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29:Q29"/>
+      <selection activeCell="P30" sqref="P30:Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2963,10 +2969,14 @@
         <v>1.5</v>
       </c>
       <c r="Q28" s="54"/>
-      <c r="R28" s="7"/>
+      <c r="R28" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="29" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
+      <c r="A29" s="41" t="s">
+        <v>28</v>
+      </c>
       <c r="B29" s="42"/>
       <c r="C29" s="42"/>
       <c r="D29" s="42"/>
@@ -2981,12 +2991,18 @@
       <c r="M29" s="42"/>
       <c r="N29" s="42"/>
       <c r="O29" s="42"/>
-      <c r="P29" s="44"/>
+      <c r="P29" s="44">
+        <v>0.5</v>
+      </c>
       <c r="Q29" s="45"/>
-      <c r="R29" s="8"/>
+      <c r="R29" s="8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="30" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="36"/>
+      <c r="A30" s="36" t="s">
+        <v>29</v>
+      </c>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>
       <c r="D30" s="37"/>
@@ -3001,7 +3017,9 @@
       <c r="M30" s="37"/>
       <c r="N30" s="37"/>
       <c r="O30" s="37"/>
-      <c r="P30" s="53"/>
+      <c r="P30" s="53">
+        <v>0.5</v>
+      </c>
       <c r="Q30" s="54"/>
       <c r="R30" s="15"/>
     </row>
@@ -3046,7 +3064,9 @@
       <c r="R32" s="15"/>
     </row>
     <row r="33" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
+      <c r="A33" s="49" t="s">
+        <v>11</v>
+      </c>
       <c r="B33" s="50"/>
       <c r="C33" s="50"/>
       <c r="D33" s="50"/>
@@ -3061,7 +3081,9 @@
       <c r="M33" s="50"/>
       <c r="N33" s="50"/>
       <c r="O33" s="50"/>
-      <c r="P33" s="44"/>
+      <c r="P33" s="44">
+        <v>0.25</v>
+      </c>
       <c r="Q33" s="45"/>
       <c r="R33" s="16"/>
     </row>
@@ -3349,7 +3371,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="63">
         <f>SUM(P7:R46)</f>
-        <v>16.75</v>
+        <v>18</v>
       </c>
       <c r="Q47" s="63"/>
       <c r="R47" s="64"/>

--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW28.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW28.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5810BF5-2EFF-475E-9E82-CE3774926683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87904D0F-3E5C-4CFF-92D5-7846A013DBF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -125,7 +125,7 @@
     <t>Projektabschnitt 4: Testen und Fehlerbehung</t>
   </si>
   <si>
-    <t xml:space="preserve">Projektabschnitt 4: Erkennnen Niveau, </t>
+    <t>Projektabschnitt 4: Erkennnen Niveau, Planen/umsetzen Aufgaben stellen</t>
   </si>
 </sst>
 </file>
@@ -2301,7 +2301,7 @@
   </sheetPr>
   <dimension ref="A1:R195"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A10" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="P30" sqref="P30:Q30"/>
     </sheetView>
   </sheetViews>
@@ -3018,7 +3018,7 @@
       <c r="N30" s="37"/>
       <c r="O30" s="37"/>
       <c r="P30" s="53">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q30" s="54"/>
       <c r="R30" s="15"/>
@@ -3371,7 +3371,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="63">
         <f>SUM(P7:R46)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q47" s="63"/>
       <c r="R47" s="64"/>

--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW28.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW28.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87904D0F-3E5C-4CFF-92D5-7846A013DBF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A9EB0D-FB62-4DB4-A65E-FD144A294C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="30">
   <si>
     <t>Wochenplan</t>
   </si>
@@ -2302,7 +2302,7 @@
   <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30:Q30"/>
+      <selection activeCell="P33" sqref="P33:Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3018,10 +3018,12 @@
       <c r="N30" s="37"/>
       <c r="O30" s="37"/>
       <c r="P30" s="53">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q30" s="54"/>
-      <c r="R30" s="15"/>
+      <c r="R30" s="15" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="31" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="41"/>
@@ -3085,7 +3087,9 @@
         <v>0.25</v>
       </c>
       <c r="Q33" s="45"/>
-      <c r="R33" s="16"/>
+      <c r="R33" s="16" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="34" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="30" t="s">
@@ -3371,7 +3375,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="63">
         <f>SUM(P7:R46)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q47" s="63"/>
       <c r="R47" s="64"/>

--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW28.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW28.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3387EBBC-1545-45F7-A638-65A502B4EED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC9E0F0-903B-4B0F-99C9-87C7B030B7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="3900" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="31">
   <si>
     <t>Wochenplan</t>
   </si>
@@ -128,7 +128,7 @@
     <t>Projektabschnitt 4: Erkennnen Niveau, Planen/umsetzen Aufgaben stellen</t>
   </si>
   <si>
-    <t>Projektabschnitt 4: umsetzen Aufgaben stellen</t>
+    <t>Projektabschnitt 4: umsetzen Aufgaben stellen, Aufgaben in Datenbank speichern</t>
   </si>
 </sst>
 </file>
@@ -2305,7 +2305,7 @@
   <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35:Q35"/>
+      <selection activeCell="A36" sqref="A36:O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3135,10 +3135,12 @@
       <c r="N35" s="37"/>
       <c r="O35" s="37"/>
       <c r="P35" s="53">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="Q35" s="54"/>
-      <c r="R35" s="7"/>
+      <c r="R35" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="36" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="41" t="s">
@@ -3386,7 +3388,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="63">
         <f>SUM(P7:R46)</f>
-        <v>23</v>
+        <v>23.75</v>
       </c>
       <c r="Q47" s="63"/>
       <c r="R47" s="64"/>

--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW28.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW28.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC9E0F0-903B-4B0F-99C9-87C7B030B7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898BCCCC-786E-4724-BF16-4E17FF3C3A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="3900" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="32">
   <si>
     <t>Wochenplan</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>Projektabschnitt 4: umsetzen Aufgaben stellen, Aufgaben in Datenbank speichern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projektabschnitt 4: </t>
   </si>
 </sst>
 </file>
@@ -2305,7 +2308,7 @@
   <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:O36"/>
+      <selection activeCell="A37" sqref="A37:O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3164,10 +3167,14 @@
         <v>2.25</v>
       </c>
       <c r="Q36" s="56"/>
-      <c r="R36" s="8"/>
+      <c r="R36" s="8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="37" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="36"/>
+      <c r="A37" s="36" t="s">
+        <v>31</v>
+      </c>
       <c r="B37" s="37"/>
       <c r="C37" s="37"/>
       <c r="D37" s="37"/>

--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW28.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW28.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898BCCCC-786E-4724-BF16-4E17FF3C3A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6DDB89-C9BE-42EC-AE34-6820A90552C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="3900" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="32">
   <si>
     <t>Wochenplan</t>
   </si>
@@ -131,7 +131,7 @@
     <t>Projektabschnitt 4: umsetzen Aufgaben stellen, Aufgaben in Datenbank speichern</t>
   </si>
   <si>
-    <t xml:space="preserve">Projektabschnitt 4: </t>
+    <t>Projektabschnitt 4: Aufgaben in Datenbank speichern,</t>
   </si>
 </sst>
 </file>
@@ -3189,7 +3189,9 @@
       <c r="M37" s="37"/>
       <c r="N37" s="37"/>
       <c r="O37" s="37"/>
-      <c r="P37" s="53"/>
+      <c r="P37" s="53">
+        <v>2</v>
+      </c>
       <c r="Q37" s="54"/>
       <c r="R37" s="7"/>
     </row>
@@ -3274,7 +3276,9 @@
       <c r="R41" s="7"/>
     </row>
     <row r="42" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="49"/>
+      <c r="A42" s="49" t="s">
+        <v>11</v>
+      </c>
       <c r="B42" s="50"/>
       <c r="C42" s="50"/>
       <c r="D42" s="50"/>
@@ -3289,9 +3293,11 @@
       <c r="M42" s="50"/>
       <c r="N42" s="50"/>
       <c r="O42" s="50"/>
-      <c r="P42" s="57"/>
-      <c r="Q42" s="58"/>
-      <c r="R42" s="10"/>
+      <c r="P42" s="55">
+        <v>0.25</v>
+      </c>
+      <c r="Q42" s="56"/>
+      <c r="R42" s="8"/>
     </row>
     <row r="43" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
@@ -3395,7 +3401,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="63">
         <f>SUM(P7:R46)</f>
-        <v>23.75</v>
+        <v>26</v>
       </c>
       <c r="Q47" s="63"/>
       <c r="R47" s="64"/>

--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW28.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW28.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6DDB89-C9BE-42EC-AE34-6820A90552C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB44298-7962-4ECA-9318-52B36DE28ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="3900" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="32">
   <si>
     <t>Wochenplan</t>
   </si>
@@ -131,7 +131,7 @@
     <t>Projektabschnitt 4: umsetzen Aufgaben stellen, Aufgaben in Datenbank speichern</t>
   </si>
   <si>
-    <t>Projektabschnitt 4: Aufgaben in Datenbank speichern,</t>
+    <t>Projektabschnitt 4: Aufgaben in Datenbank speichern, Schwierigkeit anpassen</t>
   </si>
 </sst>
 </file>
@@ -2308,7 +2308,7 @@
   <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:O37"/>
+      <selection activeCell="A42" sqref="A42:O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3190,13 +3190,17 @@
       <c r="N37" s="37"/>
       <c r="O37" s="37"/>
       <c r="P37" s="53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q37" s="54"/>
-      <c r="R37" s="7"/>
+      <c r="R37" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="38" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="41"/>
+      <c r="A38" s="41" t="s">
+        <v>11</v>
+      </c>
       <c r="B38" s="42"/>
       <c r="C38" s="42"/>
       <c r="D38" s="42"/>
@@ -3211,9 +3215,13 @@
       <c r="M38" s="42"/>
       <c r="N38" s="42"/>
       <c r="O38" s="42"/>
-      <c r="P38" s="55"/>
+      <c r="P38" s="55">
+        <v>0.25</v>
+      </c>
       <c r="Q38" s="56"/>
-      <c r="R38" s="8"/>
+      <c r="R38" s="8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="39" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="36"/>
@@ -3276,9 +3284,7 @@
       <c r="R41" s="7"/>
     </row>
     <row r="42" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="49" t="s">
-        <v>11</v>
-      </c>
+      <c r="A42" s="49"/>
       <c r="B42" s="50"/>
       <c r="C42" s="50"/>
       <c r="D42" s="50"/>
@@ -3293,9 +3299,7 @@
       <c r="M42" s="50"/>
       <c r="N42" s="50"/>
       <c r="O42" s="50"/>
-      <c r="P42" s="55">
-        <v>0.25</v>
-      </c>
+      <c r="P42" s="55"/>
       <c r="Q42" s="56"/>
       <c r="R42" s="8"/>
     </row>
@@ -3401,7 +3405,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="63">
         <f>SUM(P7:R46)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q47" s="63"/>
       <c r="R47" s="64"/>

--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW28.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW28.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Wochenplan und -bericht\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Desktop\schoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB44298-7962-4ECA-9318-52B36DE28ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394A5BBD-BF08-4168-A6BE-A77967C8768B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wochenplan" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="33">
   <si>
     <t>Wochenplan</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>Projektabschnitt 4: Aufgaben in Datenbank speichern, Schwierigkeit anpassen</t>
+  </si>
+  <si>
+    <t>Git: Problembehandlung pull request</t>
   </si>
 </sst>
 </file>
@@ -2308,7 +2311,7 @@
   <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:O42"/>
+      <selection activeCell="A40" sqref="A40:O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="12" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B12" s="37"/>
       <c r="C12" s="37"/>
@@ -2600,7 +2603,7 @@
       <c r="N12" s="37"/>
       <c r="O12" s="38"/>
       <c r="P12" s="39">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q12" s="40"/>
       <c r="R12" s="7" t="s">
@@ -3033,7 +3036,7 @@
     </row>
     <row r="31" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="41" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B31" s="42"/>
       <c r="C31" s="42"/>
@@ -3050,7 +3053,7 @@
       <c r="N31" s="42"/>
       <c r="O31" s="42"/>
       <c r="P31" s="44">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q31" s="45"/>
       <c r="R31" s="8" t="s">
@@ -3224,7 +3227,9 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="36"/>
+      <c r="A39" s="36" t="s">
+        <v>32</v>
+      </c>
       <c r="B39" s="37"/>
       <c r="C39" s="37"/>
       <c r="D39" s="37"/>
@@ -3239,9 +3244,13 @@
       <c r="M39" s="37"/>
       <c r="N39" s="37"/>
       <c r="O39" s="37"/>
-      <c r="P39" s="53"/>
+      <c r="P39" s="53">
+        <v>0.5</v>
+      </c>
       <c r="Q39" s="54"/>
-      <c r="R39" s="7"/>
+      <c r="R39" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="40" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="41"/>
@@ -3405,7 +3414,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="63">
         <f>SUM(P7:R46)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q47" s="63"/>
       <c r="R47" s="64"/>

--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW28.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW28.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6AD6D9-AB3D-4B3A-9CA2-E2A4F9148877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2EE3D7-9ED0-459E-B588-2E6B3A415E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2314,7 +2314,7 @@
   <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:O44"/>
+      <selection activeCell="P44" sqref="P44:Q44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3355,7 +3355,9 @@
       <c r="M44" s="28"/>
       <c r="N44" s="28"/>
       <c r="O44" s="28"/>
-      <c r="P44" s="29"/>
+      <c r="P44" s="29">
+        <v>0.5</v>
+      </c>
       <c r="Q44" s="30"/>
       <c r="R44" s="7"/>
     </row>
@@ -3419,7 +3421,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="25">
         <f>SUM(P7:R46)</f>
-        <v>28</v>
+        <v>28.5</v>
       </c>
       <c r="Q47" s="25"/>
       <c r="R47" s="26"/>

--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW28.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW28.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5FD922-6A3D-418E-8E97-4B499A880879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2760A037-DB96-4065-B965-30D3BB075B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4245" yWindow="4245" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="35">
   <si>
     <t>Wochenplan</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>Projektabschnitt 4: Testen und Fehlerbehebung</t>
+  </si>
+  <si>
+    <t>Dokumentation: Datenbank Modell,</t>
   </si>
 </sst>
 </file>
@@ -2314,7 +2317,7 @@
   <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:O45"/>
+      <selection activeCell="P45" sqref="P45:Q45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3364,7 +3367,9 @@
       </c>
     </row>
     <row r="45" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="41"/>
+      <c r="A45" s="41" t="s">
+        <v>34</v>
+      </c>
       <c r="B45" s="42"/>
       <c r="C45" s="42"/>
       <c r="D45" s="42"/>
@@ -3379,7 +3384,9 @@
       <c r="M45" s="42"/>
       <c r="N45" s="42"/>
       <c r="O45" s="42"/>
-      <c r="P45" s="55"/>
+      <c r="P45" s="55">
+        <v>0.5</v>
+      </c>
       <c r="Q45" s="56"/>
       <c r="R45" s="8"/>
     </row>
@@ -3427,7 +3434,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="63">
         <f>SUM(P7:R46)</f>
-        <v>30</v>
+        <v>30.5</v>
       </c>
       <c r="Q47" s="63"/>
       <c r="R47" s="64"/>

--- a/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW28.xlsx
+++ b/Documents/Wochenplan und -bericht/Orga_Wochenplan_KW28.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Wochenplan und -bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2760A037-DB96-4065-B965-30D3BB075B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB22D9F-AE32-4EFA-986B-F2857F45DCF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4245" yWindow="4245" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="36">
   <si>
     <t>Wochenplan</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>Dokumentation: Datenbank Modell,</t>
+  </si>
+  <si>
+    <t>Wochenbericht, GitHub, Organisatorisches</t>
   </si>
 </sst>
 </file>
@@ -2317,7 +2320,7 @@
   <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="P45" sqref="P45:Q45"/>
+      <selection activeCell="P47" sqref="P47:R47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3385,14 +3388,16 @@
       <c r="N45" s="42"/>
       <c r="O45" s="42"/>
       <c r="P45" s="55">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q45" s="56"/>
-      <c r="R45" s="8"/>
+      <c r="R45" s="8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="46" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="59" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B46" s="60"/>
       <c r="C46" s="60"/>
@@ -3409,10 +3414,12 @@
       <c r="N46" s="60"/>
       <c r="O46" s="60"/>
       <c r="P46" s="61">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q46" s="62"/>
-      <c r="R46" s="12"/>
+      <c r="R46" s="12" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="47" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
@@ -3434,7 +3441,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="63">
         <f>SUM(P7:R46)</f>
-        <v>30.5</v>
+        <v>31</v>
       </c>
       <c r="Q47" s="63"/>
       <c r="R47" s="64"/>
